--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E5542-26A2-4F57-8A58-3F3221FE5818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67992ED9-7853-47C9-B25C-544BB75849C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="2">
@@ -100,6 +99,87 @@
     <t>調査日：</t>
     <rPh sb="0" eb="3">
       <t>チョウサビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食・グルメ</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯蓄</t>
+    <rPh sb="0" eb="2">
+      <t>チョチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローン・借金返済</t>
+    <rPh sb="4" eb="8">
+      <t>シャッキンヘンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活費の補てん</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■調査内容：全国の20～59歳の段j</t>
+    <rPh sb="1" eb="3">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,8 +187,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +224,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -214,12 +305,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,17 +332,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,39 +680,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002D393-DD42-43BA-AE8D-6DF21D3BAF8E}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
+    <col min="2" max="5" width="9.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="7">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -606,61 +737,164 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1223</v>
+      </c>
+      <c r="D6" s="8">
+        <f>B6+C6</f>
+        <v>2225</v>
+      </c>
+      <c r="E6" s="12">
+        <f>D6/$D$13</f>
+        <v>0.11216413772243787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D12" si="0">B7+C7</f>
+        <v>304</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" ref="E7:E12" si="1">D7/$D$13</f>
+        <v>1.532489791803196E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1494</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1577</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>3071</v>
+      </c>
+      <c r="E8" s="13">
+        <f>D8/$D$13</f>
+        <v>0.15481171548117154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3571</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3746</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>7317</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.36885617784947322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1468</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>2562</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12915259363815093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1812</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1927</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>3739</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1884861622221102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>427</v>
+      </c>
+      <c r="C12" s="9">
+        <v>192</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>619</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1204315168624288E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SUM(B6:B12)</f>
+        <v>9912</v>
+      </c>
+      <c r="C13" s="10">
+        <f>SUM(C6:C12)</f>
+        <v>9925</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(D6:D12)</f>
+        <v>19837</v>
+      </c>
+      <c r="E13" s="14">
+        <f>SUM(E6:E12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -668,6 +902,39 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B6:C12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE95C93A-6626-4ABD-A53F-3FB18E57F171}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE95C93A-6626-4ABD-A53F-3FB18E57F171}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6:C12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>